--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Buller's Albatross_The Snares.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Buller's Albatross_The Snares.xlsx
@@ -4115,13 +4115,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89015D4D-42C9-41E2-9063-CB55379B67F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1BFC71-42CF-4DFC-AD4F-B7604A755404}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E01F444-ADA6-45BD-BF7E-2773EC751583}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14713ACA-3C6F-4EC2-888A-B1D97F645F23}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D3F9D9-E5DF-45D9-A46B-0B54CD49CA4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D23C70A0-97C2-4B04-83BC-7E3C8CAE4379}"/>
 </file>